--- a/R-Car_V3U_I2C_State_Machine_Verification.xlsx
+++ b/R-Car_V3U_I2C_State_Machine_Verification.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesyh\Documents\GitHub\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haule2\Downloads\temp-master (3)\temp-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072868F0-958A-46E7-8069-6B24D59439BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="870" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="870" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="slave_nack_addr" sheetId="45" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>This pattern must assure that the delay time on the slave side is short enough to make the blue path occur.</t>
   </si>
@@ -60,12 +59,36 @@
   <si>
     <t>SDBS is set to 0 (prohibited in HWM)</t>
   </si>
+  <si>
+    <t>SCSS = 1</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>State sequence: 0-1-2-9-b-(6-7)-0</t>
+  </si>
+  <si>
+    <t>State sequence: 0-1-2-9-c-(4-2-9-c)-4-0</t>
+  </si>
+  <si>
+    <t>State sequence: 0-1-2-9-c-(4-2-9-c)-4-3-0</t>
+  </si>
+  <si>
+    <t>State sequence: 0-1-2-(4-2)-4-0</t>
+  </si>
+  <si>
+    <t>State sequence: 0-1-2-(4-2)-4-3-0</t>
+  </si>
+  <si>
+    <t>State sequence: 0-1-2-(6-7)-0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +108,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,13 +136,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -148,7 +178,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -223,7 +253,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -300,7 +330,7 @@
         <xdr:cNvPr id="4" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -377,7 +407,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -454,7 +484,7 @@
         <xdr:cNvPr id="6" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -531,7 +561,7 @@
         <xdr:cNvPr id="7" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -606,7 +636,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -694,7 +724,7 @@
         <xdr:cNvPr id="9" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -782,7 +812,7 @@
         <xdr:cNvPr id="10" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +887,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -918,7 +948,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,7 +1010,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1042,7 +1072,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,7 +1133,7 @@
         <xdr:cNvPr id="15" name="Elbow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,7 +1194,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1225,7 +1255,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1284,7 +1314,7 @@
         <xdr:cNvPr id="18" name="Curved Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1345,7 +1375,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,7 +1437,7 @@
         <xdr:cNvPr id="20" name="Curved Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1496,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,7 +1558,7 @@
         <xdr:cNvPr id="22" name="Curved Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,7 +1619,7 @@
         <xdr:cNvPr id="23" name="Oval 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,7 +1696,7 @@
         <xdr:cNvPr id="24" name="Oval 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1773,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1834,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1895,7 @@
         <xdr:cNvPr id="27" name="Curved Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +1956,7 @@
         <xdr:cNvPr id="28" name="Curved Connector 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,7 +2017,7 @@
         <xdr:cNvPr id="29" name="Oval 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2094,7 @@
         <xdr:cNvPr id="30" name="Curved Connector 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2157,7 @@
         <xdr:cNvPr id="31" name="Curved Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,7 +2218,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2279,7 @@
         <xdr:cNvPr id="33" name="Oval 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2356,7 @@
         <xdr:cNvPr id="34" name="Đường kết nối: Cong 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2422,7 @@
         <xdr:cNvPr id="23" name="Curved Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,7 +2483,7 @@
         <xdr:cNvPr id="29" name="Curved Connector 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2544,7 @@
         <xdr:cNvPr id="28" name="Curved Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,7 +2605,7 @@
         <xdr:cNvPr id="2" name="Đường kết nối: Cong 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,7 +2666,7 @@
         <xdr:cNvPr id="3" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2711,7 +2741,7 @@
         <xdr:cNvPr id="4" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2786,7 +2816,7 @@
         <xdr:cNvPr id="5" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,7 +2891,7 @@
         <xdr:cNvPr id="6" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2938,7 +2968,7 @@
         <xdr:cNvPr id="7" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,7 +3045,7 @@
         <xdr:cNvPr id="8" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3090,7 +3120,7 @@
         <xdr:cNvPr id="9" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3178,7 +3208,7 @@
         <xdr:cNvPr id="10" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3264,7 +3294,7 @@
         <xdr:cNvPr id="11" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3341,7 +3371,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3400,7 +3430,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3460,7 +3490,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3522,7 +3552,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3583,7 +3613,7 @@
         <xdr:cNvPr id="16" name="Elbow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3642,7 +3672,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3703,7 +3733,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3764,7 +3794,7 @@
         <xdr:cNvPr id="19" name="Curved Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3823,7 +3853,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3885,7 +3915,7 @@
         <xdr:cNvPr id="21" name="Curved Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3946,7 +3976,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4006,7 +4036,7 @@
         <xdr:cNvPr id="24" name="Oval 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4083,7 +4113,7 @@
         <xdr:cNvPr id="25" name="Oval 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4160,7 +4190,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4221,7 +4251,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4282,7 +4312,7 @@
         <xdr:cNvPr id="30" name="Oval 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4359,7 +4389,7 @@
         <xdr:cNvPr id="31" name="Curved Connector 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4422,7 +4452,7 @@
         <xdr:cNvPr id="32" name="Curved Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4483,7 +4513,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4544,7 +4574,7 @@
         <xdr:cNvPr id="34" name="Oval 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4621,7 +4651,7 @@
         <xdr:cNvPr id="36" name="Đường kết nối Mũi tên Thẳng 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120C0C8C-F371-4433-9212-4321BF9D6AC3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120C0C8C-F371-4433-9212-4321BF9D6AC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4682,7 +4712,7 @@
         <xdr:cNvPr id="2" name="Curved Connector 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4743,7 +4773,7 @@
         <xdr:cNvPr id="3" name="Curved Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4804,7 +4834,7 @@
         <xdr:cNvPr id="4" name="Đường kết nối: Cong 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4865,7 +4895,7 @@
         <xdr:cNvPr id="5" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4940,7 +4970,7 @@
         <xdr:cNvPr id="6" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5015,7 +5045,7 @@
         <xdr:cNvPr id="7" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5090,7 +5120,7 @@
         <xdr:cNvPr id="8" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5167,7 +5197,7 @@
         <xdr:cNvPr id="9" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5244,7 +5274,7 @@
         <xdr:cNvPr id="10" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5319,7 +5349,7 @@
         <xdr:cNvPr id="11" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5407,7 +5437,7 @@
         <xdr:cNvPr id="12" name="Oval 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5493,7 +5523,7 @@
         <xdr:cNvPr id="13" name="Oval 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5570,7 +5600,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5629,7 +5659,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5689,7 +5719,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5751,7 +5781,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5812,7 +5842,7 @@
         <xdr:cNvPr id="18" name="Elbow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5871,7 +5901,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5932,7 +5962,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5993,7 +6023,7 @@
         <xdr:cNvPr id="21" name="Curved Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6052,7 +6082,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6114,7 +6144,7 @@
         <xdr:cNvPr id="23" name="Curved Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6175,7 +6205,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6235,7 +6265,7 @@
         <xdr:cNvPr id="25" name="Curved Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6296,7 +6326,7 @@
         <xdr:cNvPr id="26" name="Oval 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6373,7 +6403,7 @@
         <xdr:cNvPr id="27" name="Oval 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6450,7 +6480,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6511,7 +6541,7 @@
         <xdr:cNvPr id="29" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6572,7 +6602,7 @@
         <xdr:cNvPr id="30" name="Oval 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6649,7 +6679,7 @@
         <xdr:cNvPr id="31" name="Curved Connector 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6712,7 +6742,7 @@
         <xdr:cNvPr id="32" name="Curved Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6773,7 +6803,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6834,7 +6864,7 @@
         <xdr:cNvPr id="34" name="Oval 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6911,7 +6941,7 @@
         <xdr:cNvPr id="36" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881347ED-A3A4-45F3-8B95-7A1C26F4F854}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881347ED-A3A4-45F3-8B95-7A1C26F4F854}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6973,7 +7003,7 @@
         <xdr:cNvPr id="22" name="Curved Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299AAEE0-C345-4DE9-8394-696EAFBE0596}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299AAEE0-C345-4DE9-8394-696EAFBE0596}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7032,7 +7062,7 @@
         <xdr:cNvPr id="2" name="Curved Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489C3800-DD24-499C-9A80-02189C902B0C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489C3800-DD24-499C-9A80-02189C902B0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7091,7 +7121,7 @@
         <xdr:cNvPr id="3" name="Curved Connector 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE2EA48-9510-469B-B820-08B0C37271DE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE2EA48-9510-469B-B820-08B0C37271DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7152,7 +7182,7 @@
         <xdr:cNvPr id="4" name="Curved Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B48F684-7922-461F-8432-9DFEC0C1B9CF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B48F684-7922-461F-8432-9DFEC0C1B9CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7213,7 +7243,7 @@
         <xdr:cNvPr id="5" name="Đường kết nối: Cong 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D616DB4-A243-416B-97C5-FF1FCECDC3D1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D616DB4-A243-416B-97C5-FF1FCECDC3D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7274,7 +7304,7 @@
         <xdr:cNvPr id="6" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF05D13-A85C-45B1-8D6D-09975FF0F4B1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF05D13-A85C-45B1-8D6D-09975FF0F4B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7349,7 +7379,7 @@
         <xdr:cNvPr id="7" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A7A8352-5EF7-417E-8AB9-68C7D3B6C4E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A7A8352-5EF7-417E-8AB9-68C7D3B6C4E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7424,7 +7454,7 @@
         <xdr:cNvPr id="8" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC34F91-112F-4DB2-A8D5-887005B1FE84}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC34F91-112F-4DB2-A8D5-887005B1FE84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7499,7 +7529,7 @@
         <xdr:cNvPr id="9" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB3F247-60BE-4F0C-91B5-63060449E019}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB3F247-60BE-4F0C-91B5-63060449E019}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7576,7 +7606,7 @@
         <xdr:cNvPr id="10" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E000B76A-A7E0-44BF-8574-6A2B9F54CBCD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E000B76A-A7E0-44BF-8574-6A2B9F54CBCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7653,7 +7683,7 @@
         <xdr:cNvPr id="11" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A3A5A4-5908-4C66-BF49-43571F964A39}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A3A5A4-5908-4C66-BF49-43571F964A39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7728,7 +7758,7 @@
         <xdr:cNvPr id="12" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41253AEA-F88D-4515-A8EB-E43064A34DE1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41253AEA-F88D-4515-A8EB-E43064A34DE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7816,7 +7846,7 @@
         <xdr:cNvPr id="13" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC70F37A-35AF-4127-82DA-4C96BCF35FFC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC70F37A-35AF-4127-82DA-4C96BCF35FFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7902,7 +7932,7 @@
         <xdr:cNvPr id="14" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFAE1CE-B7B1-41CE-BA3C-AF65EDD664C9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFAE1CE-B7B1-41CE-BA3C-AF65EDD664C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7977,7 +8007,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D70589-BDCF-4325-9A5F-2E78938C715E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D70589-BDCF-4325-9A5F-2E78938C715E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8036,7 +8066,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AFF0F2-AF67-44CA-AF01-C8B2EA44ACA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AFF0F2-AF67-44CA-AF01-C8B2EA44ACA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8096,7 +8126,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05082F98-C9F2-4624-A4CB-D01140FC6785}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05082F98-C9F2-4624-A4CB-D01140FC6785}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8158,7 +8188,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB4D63E-B02A-4693-9302-FC3D32957794}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB4D63E-B02A-4693-9302-FC3D32957794}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8219,7 +8249,7 @@
         <xdr:cNvPr id="19" name="Elbow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA3BE8F-57C1-4C38-B722-D0591DF3D955}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA3BE8F-57C1-4C38-B722-D0591DF3D955}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8278,7 +8308,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC266ED-A7C4-4A81-B568-BEA429A8F492}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC266ED-A7C4-4A81-B568-BEA429A8F492}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8337,7 +8367,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD28695-740A-4E16-B76D-F52DD7FABA20}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD28695-740A-4E16-B76D-F52DD7FABA20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8398,7 +8428,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F24F2357-5040-48ED-90DF-D6E551B69B1E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F24F2357-5040-48ED-90DF-D6E551B69B1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8460,7 +8490,7 @@
         <xdr:cNvPr id="24" name="Curved Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A3D751-EEC7-4B44-BAE0-DB8473157C57}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A3D751-EEC7-4B44-BAE0-DB8473157C57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8521,7 +8551,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB4403E-45E2-4D90-9350-7055C62FBB21}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB4403E-45E2-4D90-9350-7055C62FBB21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8583,7 +8613,7 @@
         <xdr:cNvPr id="26" name="Oval 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518E24A1-C6BC-4FAE-BB8F-70C690164504}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518E24A1-C6BC-4FAE-BB8F-70C690164504}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8660,7 +8690,7 @@
         <xdr:cNvPr id="27" name="Oval 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF14F32-9117-4A22-BE67-7F51F0DD71D7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF14F32-9117-4A22-BE67-7F51F0DD71D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8737,7 +8767,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF6EA3AC-C1E1-4E73-AED7-C6257C034F73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF6EA3AC-C1E1-4E73-AED7-C6257C034F73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8798,7 +8828,7 @@
         <xdr:cNvPr id="29" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A3A4C8-C5D0-4C35-916B-54732CF5012C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A3A4C8-C5D0-4C35-916B-54732CF5012C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8859,7 +8889,7 @@
         <xdr:cNvPr id="30" name="Oval 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF142D6-430F-4A6F-A128-641D9701D52D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF142D6-430F-4A6F-A128-641D9701D52D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8936,7 +8966,7 @@
         <xdr:cNvPr id="31" name="Curved Connector 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0B809E1-AE41-42F1-A1DD-8C0FDFF6E691}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0B809E1-AE41-42F1-A1DD-8C0FDFF6E691}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8999,7 +9029,7 @@
         <xdr:cNvPr id="32" name="Curved Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86893EF-4DE1-4C1B-88CA-2C19D11DA2D6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86893EF-4DE1-4C1B-88CA-2C19D11DA2D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9060,7 +9090,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC9AFD8-608B-4E76-B52F-1CCE5E6AB75E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC9AFD8-608B-4E76-B52F-1CCE5E6AB75E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9121,7 +9151,7 @@
         <xdr:cNvPr id="34" name="Oval 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBDDAA1-633A-41D8-82D2-62A7E22E4DC0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBDDAA1-633A-41D8-82D2-62A7E22E4DC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9198,7 +9228,7 @@
         <xdr:cNvPr id="35" name="Đường kết nối Mũi tên Thẳng 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F8B623-EC39-4C3D-A316-3468B1F54717}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F8B623-EC39-4C3D-A316-3468B1F54717}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9259,7 +9289,7 @@
         <xdr:cNvPr id="22" name="Curved Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9318,7 +9348,7 @@
         <xdr:cNvPr id="27" name="Curved Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9379,7 +9409,7 @@
         <xdr:cNvPr id="34" name="Đường kết nối: Cong 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9440,7 +9470,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9515,7 +9545,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9590,7 +9620,7 @@
         <xdr:cNvPr id="4" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9665,7 +9695,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9742,7 +9772,7 @@
         <xdr:cNvPr id="6" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9819,7 +9849,7 @@
         <xdr:cNvPr id="7" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9894,7 +9924,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9982,7 +10012,7 @@
         <xdr:cNvPr id="9" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10068,7 +10098,7 @@
         <xdr:cNvPr id="10" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10143,7 +10173,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10202,7 +10232,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10262,7 +10292,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10324,7 +10354,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10385,7 +10415,7 @@
         <xdr:cNvPr id="15" name="Elbow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10444,7 +10474,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10503,7 +10533,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10564,7 +10594,7 @@
         <xdr:cNvPr id="18" name="Curved Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10623,7 +10653,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10685,7 +10715,7 @@
         <xdr:cNvPr id="20" name="Curved Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10744,7 +10774,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10806,7 +10836,7 @@
         <xdr:cNvPr id="23" name="Oval 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10883,7 +10913,7 @@
         <xdr:cNvPr id="24" name="Oval 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10960,7 +10990,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11021,7 +11051,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11082,7 +11112,7 @@
         <xdr:cNvPr id="28" name="Curved Connector 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11143,7 +11173,7 @@
         <xdr:cNvPr id="29" name="Oval 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11220,7 +11250,7 @@
         <xdr:cNvPr id="30" name="Curved Connector 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11283,7 +11313,7 @@
         <xdr:cNvPr id="31" name="Curved Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11344,7 +11374,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11405,7 +11435,7 @@
         <xdr:cNvPr id="33" name="Oval 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11482,7 +11512,7 @@
         <xdr:cNvPr id="37" name="Đường kết nối Mũi tên Thẳng 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77093ECA-828B-40EB-B4E4-34F4FE9A40F8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77093ECA-828B-40EB-B4E4-34F4FE9A40F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11543,7 +11573,7 @@
         <xdr:cNvPr id="29" name="Curved Connector 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11604,7 +11634,7 @@
         <xdr:cNvPr id="28" name="Curved Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11665,7 +11695,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11727,7 +11757,7 @@
         <xdr:cNvPr id="2" name="Đường kết nối: Cong 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11786,7 +11816,7 @@
         <xdr:cNvPr id="3" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11861,7 +11891,7 @@
         <xdr:cNvPr id="4" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11936,7 +11966,7 @@
         <xdr:cNvPr id="5" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12013,7 +12043,7 @@
         <xdr:cNvPr id="6" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12088,7 +12118,7 @@
         <xdr:cNvPr id="7" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12163,7 +12193,7 @@
         <xdr:cNvPr id="8" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12238,7 +12268,7 @@
         <xdr:cNvPr id="9" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12324,7 +12354,7 @@
         <xdr:cNvPr id="10" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12412,7 +12442,7 @@
         <xdr:cNvPr id="11" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12489,7 +12519,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12548,7 +12578,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12608,7 +12638,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12667,7 +12697,7 @@
         <xdr:cNvPr id="16" name="Elbow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12728,7 +12758,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12789,7 +12819,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12850,7 +12880,7 @@
         <xdr:cNvPr id="19" name="Curved Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12911,7 +12941,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12971,7 +13001,7 @@
         <xdr:cNvPr id="21" name="Curved Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13032,7 +13062,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13094,7 +13124,7 @@
         <xdr:cNvPr id="23" name="Curved Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13155,7 +13185,7 @@
         <xdr:cNvPr id="24" name="Oval 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13232,7 +13262,7 @@
         <xdr:cNvPr id="25" name="Oval 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13309,7 +13339,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13370,7 +13400,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13431,7 +13461,7 @@
         <xdr:cNvPr id="30" name="Oval 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13508,7 +13538,7 @@
         <xdr:cNvPr id="31" name="Curved Connector 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13571,7 +13601,7 @@
         <xdr:cNvPr id="32" name="Curved Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13632,7 +13662,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13693,7 +13723,7 @@
         <xdr:cNvPr id="34" name="Oval 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13775,7 +13805,7 @@
         <xdr:cNvPr id="29" name="Curved Connector 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DE8911-C0C5-4AE5-97FF-0EFF06DC4B83}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DE8911-C0C5-4AE5-97FF-0EFF06DC4B83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13836,7 +13866,7 @@
         <xdr:cNvPr id="2" name="Curved Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A22D17-A7AF-4138-918A-00E47858A7B9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32A22D17-A7AF-4138-918A-00E47858A7B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13897,7 +13927,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{172A4343-D16A-4FCE-8CA4-DB0C2237711B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{172A4343-D16A-4FCE-8CA4-DB0C2237711B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13959,7 +13989,7 @@
         <xdr:cNvPr id="4" name="Đường kết nối: Cong 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0353B6BF-D6E1-4861-BC40-124B0B6DDC86}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0353B6BF-D6E1-4861-BC40-124B0B6DDC86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14018,7 +14048,7 @@
         <xdr:cNvPr id="5" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB855E56-6FE8-44E0-82CA-4C5524E654D7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB855E56-6FE8-44E0-82CA-4C5524E654D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14093,7 +14123,7 @@
         <xdr:cNvPr id="6" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E5984B-99A0-4060-90FC-E129216D9685}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E5984B-99A0-4060-90FC-E129216D9685}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14168,7 +14198,7 @@
         <xdr:cNvPr id="7" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C29D7D0-04D8-4C4E-B8A8-95532ADA1FCF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C29D7D0-04D8-4C4E-B8A8-95532ADA1FCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14245,7 +14275,7 @@
         <xdr:cNvPr id="8" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3E6600-9AB9-4282-83D5-0E4113756D40}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3E6600-9AB9-4282-83D5-0E4113756D40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14320,7 +14350,7 @@
         <xdr:cNvPr id="9" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5A8B7A-D401-4DFA-9832-9CA994900CFE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5A8B7A-D401-4DFA-9832-9CA994900CFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14395,7 +14425,7 @@
         <xdr:cNvPr id="10" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470A8BB0-1374-45BF-8ED7-9DABDC2AD51E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470A8BB0-1374-45BF-8ED7-9DABDC2AD51E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14470,7 +14500,7 @@
         <xdr:cNvPr id="11" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05CAC24-6E14-4B16-BB1D-6BDB09BCBF99}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05CAC24-6E14-4B16-BB1D-6BDB09BCBF99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14556,7 +14586,7 @@
         <xdr:cNvPr id="12" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FEC2D4C-1D52-4C5B-A22C-194DA611FCD3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FEC2D4C-1D52-4C5B-A22C-194DA611FCD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14644,7 +14674,7 @@
         <xdr:cNvPr id="13" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2071C3-57F0-4A1C-B625-E2B3552CA4E9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2071C3-57F0-4A1C-B625-E2B3552CA4E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14721,7 +14751,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5918E7D6-F210-40C5-9625-3EDA8448871D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5918E7D6-F210-40C5-9625-3EDA8448871D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14780,7 +14810,7 @@
         <xdr:cNvPr id="15" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12806526-E969-4CAD-BEF0-AE35622F35D4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12806526-E969-4CAD-BEF0-AE35622F35D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14840,7 +14870,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69A86DC-201C-4664-A856-70CC2A97E7FD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A69A86DC-201C-4664-A856-70CC2A97E7FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14899,7 +14929,7 @@
         <xdr:cNvPr id="17" name="Elbow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36960637-D05D-4DBA-9853-38888153325F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36960637-D05D-4DBA-9853-38888153325F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14960,7 +14990,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202FA3D6-94AA-415C-863B-3E9BF60CABA5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202FA3D6-94AA-415C-863B-3E9BF60CABA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15021,7 +15051,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B933BE9F-FF09-4651-8257-7F79C1C9D848}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B933BE9F-FF09-4651-8257-7F79C1C9D848}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15082,7 +15112,7 @@
         <xdr:cNvPr id="20" name="Curved Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5C2ECD-5E6D-4D5F-BA74-EC7C9306E16D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5C2ECD-5E6D-4D5F-BA74-EC7C9306E16D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15143,7 +15173,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D301E67-4E90-425D-AE57-EA9A11E7136D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D301E67-4E90-425D-AE57-EA9A11E7136D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15203,7 +15233,7 @@
         <xdr:cNvPr id="22" name="Curved Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5D27AE-7A0C-41F5-B1D4-81CBD2144EEA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5D27AE-7A0C-41F5-B1D4-81CBD2144EEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15264,7 +15294,7 @@
         <xdr:cNvPr id="23" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E4E4AC-F062-4394-9910-1659670E9AB1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E4E4AC-F062-4394-9910-1659670E9AB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15326,7 +15356,7 @@
         <xdr:cNvPr id="24" name="Curved Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199652DA-F01A-4C2C-B32F-EEEB870DCEEC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199652DA-F01A-4C2C-B32F-EEEB870DCEEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15387,7 +15417,7 @@
         <xdr:cNvPr id="25" name="Oval 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECC922F-4FFB-45A4-93B1-828C4E98AC5B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECC922F-4FFB-45A4-93B1-828C4E98AC5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15464,7 +15494,7 @@
         <xdr:cNvPr id="26" name="Oval 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A3C70F-5436-4896-9097-559DA14C5916}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A3C70F-5436-4896-9097-559DA14C5916}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15541,7 +15571,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5ECAA43-D05E-46E0-8363-BC1279729015}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5ECAA43-D05E-46E0-8363-BC1279729015}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15602,7 +15632,7 @@
         <xdr:cNvPr id="28" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55670567-0071-4567-8715-24B920EAA1E9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55670567-0071-4567-8715-24B920EAA1E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15663,7 +15693,7 @@
         <xdr:cNvPr id="30" name="Oval 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67847457-8062-4BE5-A10B-2C210F4272B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67847457-8062-4BE5-A10B-2C210F4272B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15740,7 +15770,7 @@
         <xdr:cNvPr id="31" name="Curved Connector 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA2E006-E53A-4C4A-AE5F-03C530AF2CE7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA2E006-E53A-4C4A-AE5F-03C530AF2CE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15803,7 +15833,7 @@
         <xdr:cNvPr id="32" name="Curved Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B771F12-41BF-4BAA-A5BB-D1A9750071FF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B771F12-41BF-4BAA-A5BB-D1A9750071FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15864,7 +15894,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E959241C-8C9D-4E21-B101-D11D80FD5CFE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E959241C-8C9D-4E21-B101-D11D80FD5CFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15925,7 +15955,7 @@
         <xdr:cNvPr id="34" name="Oval 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57930088-89F9-4751-9A67-DD0583E40B61}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57930088-89F9-4751-9A67-DD0583E40B61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16007,7 +16037,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16082,7 +16112,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16157,7 +16187,7 @@
         <xdr:cNvPr id="4" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16232,7 +16262,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16307,7 +16337,7 @@
         <xdr:cNvPr id="6" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16382,7 +16412,7 @@
         <xdr:cNvPr id="7" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16457,7 +16487,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16543,7 +16573,7 @@
         <xdr:cNvPr id="10" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16629,7 +16659,7 @@
         <xdr:cNvPr id="11" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16704,7 +16734,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16763,7 +16793,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16823,7 +16853,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16883,7 +16913,7 @@
         <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16942,7 +16972,7 @@
         <xdr:cNvPr id="19" name="Elbow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17001,7 +17031,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17060,7 +17090,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17119,7 +17149,7 @@
         <xdr:cNvPr id="22" name="Curved Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17178,7 +17208,7 @@
         <xdr:cNvPr id="24" name="Elbow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17239,7 +17269,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17299,7 +17329,7 @@
         <xdr:cNvPr id="28" name="Curved Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17358,7 +17388,7 @@
         <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17418,7 +17448,7 @@
         <xdr:cNvPr id="30" name="Curved Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17477,7 +17507,7 @@
         <xdr:cNvPr id="31" name="Rectangular Callout 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17614,7 +17644,7 @@
         <xdr:cNvPr id="32" name="Rectangular Callout 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17779,7 +17809,7 @@
         <xdr:cNvPr id="33" name="Rectangular Callout 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17868,7 +17898,7 @@
         <xdr:cNvPr id="34" name="Rectangular Callout 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18017,7 +18047,7 @@
         <xdr:cNvPr id="35" name="Rectangular Callout 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18108,7 +18138,7 @@
         <xdr:cNvPr id="36" name="Rectangular Callout 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18221,7 +18251,7 @@
         <xdr:cNvPr id="38" name="Rectangular Callout 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18334,7 +18364,7 @@
         <xdr:cNvPr id="39" name="Rectangular Callout 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18425,7 +18455,7 @@
         <xdr:cNvPr id="40" name="Rectangular Callout 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18580,7 +18610,7 @@
         <xdr:cNvPr id="41" name="Rectangular Callout 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18685,7 +18715,7 @@
         <xdr:cNvPr id="42" name="Rectangular Callout 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18774,7 +18804,7 @@
         <xdr:cNvPr id="43" name="Rectangular Callout 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18898,7 +18928,7 @@
         <xdr:cNvPr id="44" name="Rectangular Callout 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00002C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19000,7 +19030,7 @@
         <xdr:cNvPr id="45" name="Rectangular Callout 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19124,7 +19154,7 @@
         <xdr:cNvPr id="48" name="Oval 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000030000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19199,7 +19229,7 @@
         <xdr:cNvPr id="49" name="Oval 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19274,7 +19304,7 @@
         <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000032000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19332,7 +19362,7 @@
         <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19391,7 +19421,7 @@
         <xdr:cNvPr id="52" name="Curved Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19452,7 +19482,7 @@
         <xdr:cNvPr id="54" name="Curved Connector 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000036000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19511,7 +19541,7 @@
         <xdr:cNvPr id="62" name="Rectangular Callout 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00003E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19600,7 +19630,7 @@
         <xdr:cNvPr id="64" name="Rectangular Callout 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000040000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19724,7 +19754,7 @@
         <xdr:cNvPr id="66" name="Rectangular Callout 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19837,7 +19867,7 @@
         <xdr:cNvPr id="55" name="Rectangular Callout 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000037000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19950,7 +19980,7 @@
         <xdr:cNvPr id="56" name="Rectangular Callout 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20041,7 +20071,7 @@
         <xdr:cNvPr id="57" name="Oval 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000039000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20118,7 +20148,7 @@
         <xdr:cNvPr id="58" name="Curved Connector 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00003A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20181,7 +20211,7 @@
         <xdr:cNvPr id="59" name="Curved Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20244,7 +20274,7 @@
         <xdr:cNvPr id="60" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00003C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20305,7 +20335,7 @@
         <xdr:cNvPr id="61" name="Rectangular Callout 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00003D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20383,7 +20413,7 @@
         <xdr:cNvPr id="67" name="Oval 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000043000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20458,7 +20488,7 @@
         <xdr:cNvPr id="68" name="Rectangular Callout 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000044000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20541,7 +20571,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20616,7 +20646,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20691,7 +20721,7 @@
         <xdr:cNvPr id="4" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20766,7 +20796,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20841,7 +20871,7 @@
         <xdr:cNvPr id="6" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20916,7 +20946,7 @@
         <xdr:cNvPr id="7" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20991,7 +21021,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21079,7 +21109,7 @@
         <xdr:cNvPr id="9" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21167,7 +21197,7 @@
         <xdr:cNvPr id="10" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21242,7 +21272,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21301,7 +21331,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21361,7 +21391,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21421,7 +21451,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21480,7 +21510,7 @@
         <xdr:cNvPr id="15" name="Elbow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21541,7 +21571,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21602,7 +21632,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21663,7 +21693,7 @@
         <xdr:cNvPr id="18" name="Curved Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21724,7 +21754,7 @@
         <xdr:cNvPr id="20" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21786,7 +21816,7 @@
         <xdr:cNvPr id="21" name="Curved Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21845,7 +21875,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21905,7 +21935,7 @@
         <xdr:cNvPr id="23" name="Curved Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21964,7 +21994,7 @@
         <xdr:cNvPr id="38" name="Oval 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22039,7 +22069,7 @@
         <xdr:cNvPr id="39" name="Oval 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22114,7 +22144,7 @@
         <xdr:cNvPr id="40" name="Straight Arrow Connector 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22173,7 +22203,7 @@
         <xdr:cNvPr id="41" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22232,7 +22262,7 @@
         <xdr:cNvPr id="42" name="Curved Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22291,7 +22321,7 @@
         <xdr:cNvPr id="43" name="Curved Connector 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22350,7 +22380,7 @@
         <xdr:cNvPr id="49" name="Oval 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22425,7 +22455,7 @@
         <xdr:cNvPr id="50" name="Curved Connector 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22486,7 +22516,7 @@
         <xdr:cNvPr id="51" name="Curved Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22545,7 +22575,7 @@
         <xdr:cNvPr id="52" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22604,7 +22634,7 @@
         <xdr:cNvPr id="54" name="Oval 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22679,7 +22709,7 @@
         <xdr:cNvPr id="89" name="Đường kết nối: Cong 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22743,7 +22773,7 @@
         <xdr:cNvPr id="34" name="Đường kết nối: Cong 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22804,7 +22834,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22879,7 +22909,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22954,7 +22984,7 @@
         <xdr:cNvPr id="4" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23029,7 +23059,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23106,7 +23136,7 @@
         <xdr:cNvPr id="6" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23183,7 +23213,7 @@
         <xdr:cNvPr id="7" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23258,7 +23288,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23346,7 +23376,7 @@
         <xdr:cNvPr id="9" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23434,7 +23464,7 @@
         <xdr:cNvPr id="10" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23511,7 +23541,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23570,7 +23600,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23630,7 +23660,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23692,7 +23722,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23753,7 +23783,7 @@
         <xdr:cNvPr id="15" name="Elbow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23814,7 +23844,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23875,7 +23905,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23936,7 +23966,7 @@
         <xdr:cNvPr id="18" name="Curved Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23997,7 +24027,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24059,7 +24089,7 @@
         <xdr:cNvPr id="20" name="Curved Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24120,7 +24150,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24180,7 +24210,7 @@
         <xdr:cNvPr id="22" name="Curved Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24241,7 +24271,7 @@
         <xdr:cNvPr id="23" name="Oval 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24318,7 +24348,7 @@
         <xdr:cNvPr id="24" name="Oval 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24393,7 +24423,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24452,7 +24482,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24511,7 +24541,7 @@
         <xdr:cNvPr id="27" name="Curved Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24570,7 +24600,7 @@
         <xdr:cNvPr id="28" name="Curved Connector 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24631,7 +24661,7 @@
         <xdr:cNvPr id="29" name="Oval 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24708,7 +24738,7 @@
         <xdr:cNvPr id="30" name="Curved Connector 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24771,7 +24801,7 @@
         <xdr:cNvPr id="31" name="Curved Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24832,7 +24862,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24893,7 +24923,7 @@
         <xdr:cNvPr id="33" name="Oval 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24973,7 +25003,7 @@
         <xdr:cNvPr id="67" name="Đường kết nối: Cong 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000043000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25034,7 +25064,7 @@
         <xdr:cNvPr id="35" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25109,7 +25139,7 @@
         <xdr:cNvPr id="36" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25184,7 +25214,7 @@
         <xdr:cNvPr id="37" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25259,7 +25289,7 @@
         <xdr:cNvPr id="38" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25336,7 +25366,7 @@
         <xdr:cNvPr id="39" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25413,7 +25443,7 @@
         <xdr:cNvPr id="40" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25488,7 +25518,7 @@
         <xdr:cNvPr id="41" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25576,7 +25606,7 @@
         <xdr:cNvPr id="42" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25664,7 +25694,7 @@
         <xdr:cNvPr id="43" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25739,7 +25769,7 @@
         <xdr:cNvPr id="44" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25798,7 +25828,7 @@
         <xdr:cNvPr id="45" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25858,7 +25888,7 @@
         <xdr:cNvPr id="46" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25920,7 +25950,7 @@
         <xdr:cNvPr id="47" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25981,7 +26011,7 @@
         <xdr:cNvPr id="48" name="Elbow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26042,7 +26072,7 @@
         <xdr:cNvPr id="49" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26103,7 +26133,7 @@
         <xdr:cNvPr id="50" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26164,7 +26194,7 @@
         <xdr:cNvPr id="51" name="Curved Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26225,7 +26255,7 @@
         <xdr:cNvPr id="52" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26287,7 +26317,7 @@
         <xdr:cNvPr id="53" name="Curved Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26346,7 +26376,7 @@
         <xdr:cNvPr id="54" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26408,7 +26438,7 @@
         <xdr:cNvPr id="55" name="Curved Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26467,7 +26497,7 @@
         <xdr:cNvPr id="56" name="Oval 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26544,7 +26574,7 @@
         <xdr:cNvPr id="57" name="Oval 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000039000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26619,7 +26649,7 @@
         <xdr:cNvPr id="58" name="Straight Arrow Connector 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26678,7 +26708,7 @@
         <xdr:cNvPr id="59" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26737,7 +26767,7 @@
         <xdr:cNvPr id="60" name="Curved Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26796,7 +26826,7 @@
         <xdr:cNvPr id="61" name="Curved Connector 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26857,7 +26887,7 @@
         <xdr:cNvPr id="62" name="Oval 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26934,7 +26964,7 @@
         <xdr:cNvPr id="63" name="Curved Connector 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26997,7 +27027,7 @@
         <xdr:cNvPr id="64" name="Curved Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000040000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27058,7 +27088,7 @@
         <xdr:cNvPr id="65" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000041000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27119,7 +27149,7 @@
         <xdr:cNvPr id="66" name="Oval 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000042000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27199,7 +27229,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27260,7 +27290,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27335,7 +27365,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27410,7 +27440,7 @@
         <xdr:cNvPr id="4" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27487,7 +27517,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27562,7 +27592,7 @@
         <xdr:cNvPr id="6" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27637,7 +27667,7 @@
         <xdr:cNvPr id="7" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27712,7 +27742,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27800,7 +27830,7 @@
         <xdr:cNvPr id="9" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27888,7 +27918,7 @@
         <xdr:cNvPr id="10" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27965,7 +27995,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28024,7 +28054,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28086,7 +28116,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28146,7 +28176,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28205,7 +28235,7 @@
         <xdr:cNvPr id="15" name="Elbow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28266,7 +28296,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28327,7 +28357,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28388,7 +28418,7 @@
         <xdr:cNvPr id="18" name="Curved Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28449,7 +28479,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28511,7 +28541,7 @@
         <xdr:cNvPr id="20" name="Curved Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28572,7 +28602,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28634,7 +28664,7 @@
         <xdr:cNvPr id="22" name="Curved Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28695,7 +28725,7 @@
         <xdr:cNvPr id="23" name="Oval 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28772,7 +28802,7 @@
         <xdr:cNvPr id="24" name="Oval 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28847,7 +28877,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28906,7 +28936,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28967,7 +28997,7 @@
         <xdr:cNvPr id="27" name="Curved Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29028,7 +29058,7 @@
         <xdr:cNvPr id="28" name="Curved Connector 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29089,7 +29119,7 @@
         <xdr:cNvPr id="29" name="Oval 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29164,7 +29194,7 @@
         <xdr:cNvPr id="30" name="Curved Connector 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29225,7 +29255,7 @@
         <xdr:cNvPr id="31" name="Curved Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29284,7 +29314,7 @@
         <xdr:cNvPr id="33" name="Oval 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29361,7 +29391,7 @@
         <xdr:cNvPr id="34" name="Đường kết nối: Cong 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29427,7 +29457,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29502,7 +29532,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29577,7 +29607,7 @@
         <xdr:cNvPr id="4" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29654,7 +29684,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29729,7 +29759,7 @@
         <xdr:cNvPr id="6" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29804,7 +29834,7 @@
         <xdr:cNvPr id="7" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29879,7 +29909,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -29967,7 +29997,7 @@
         <xdr:cNvPr id="9" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30055,7 +30085,7 @@
         <xdr:cNvPr id="10" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30132,7 +30162,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30191,7 +30221,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30253,7 +30283,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30313,7 +30343,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30372,7 +30402,7 @@
         <xdr:cNvPr id="15" name="Elbow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30433,7 +30463,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30494,7 +30524,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30555,7 +30585,7 @@
         <xdr:cNvPr id="18" name="Curved Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30616,7 +30646,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30678,7 +30708,7 @@
         <xdr:cNvPr id="20" name="Curved Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30739,7 +30769,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30801,7 +30831,7 @@
         <xdr:cNvPr id="22" name="Curved Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30862,7 +30892,7 @@
         <xdr:cNvPr id="23" name="Oval 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -30937,7 +30967,7 @@
         <xdr:cNvPr id="24" name="Oval 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31012,7 +31042,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31071,7 +31101,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31132,7 +31162,7 @@
         <xdr:cNvPr id="27" name="Curved Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31193,7 +31223,7 @@
         <xdr:cNvPr id="28" name="Curved Connector 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31252,7 +31282,7 @@
         <xdr:cNvPr id="29" name="Oval 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31327,7 +31357,7 @@
         <xdr:cNvPr id="30" name="Curved Connector 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31388,7 +31418,7 @@
         <xdr:cNvPr id="31" name="Curved Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31447,7 +31477,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31506,7 +31536,7 @@
         <xdr:cNvPr id="33" name="Oval 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31583,7 +31613,7 @@
         <xdr:cNvPr id="34" name="Đường kết nối: Cong 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31649,7 +31679,7 @@
         <xdr:cNvPr id="28" name="Curved Connector 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31710,7 +31740,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31785,7 +31815,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31860,7 +31890,7 @@
         <xdr:cNvPr id="4" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31935,7 +31965,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32010,7 +32040,7 @@
         <xdr:cNvPr id="6" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32085,7 +32115,7 @@
         <xdr:cNvPr id="7" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32160,7 +32190,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32246,7 +32276,7 @@
         <xdr:cNvPr id="9" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32332,7 +32362,7 @@
         <xdr:cNvPr id="10" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32407,7 +32437,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32466,7 +32496,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32526,7 +32556,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32586,7 +32616,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32645,7 +32675,7 @@
         <xdr:cNvPr id="15" name="Elbow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32704,7 +32734,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32763,7 +32793,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32824,7 +32854,7 @@
         <xdr:cNvPr id="18" name="Curved Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32883,7 +32913,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32943,7 +32973,7 @@
         <xdr:cNvPr id="20" name="Curved Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33002,7 +33032,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33062,7 +33092,7 @@
         <xdr:cNvPr id="22" name="Curved Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33121,7 +33151,7 @@
         <xdr:cNvPr id="23" name="Oval 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33198,7 +33228,7 @@
         <xdr:cNvPr id="24" name="Oval 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33275,7 +33305,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33336,7 +33366,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33397,7 +33427,7 @@
         <xdr:cNvPr id="27" name="Curved Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33458,7 +33488,7 @@
         <xdr:cNvPr id="29" name="Oval 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33535,7 +33565,7 @@
         <xdr:cNvPr id="30" name="Curved Connector 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33598,7 +33628,7 @@
         <xdr:cNvPr id="31" name="Curved Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33659,7 +33689,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33720,7 +33750,7 @@
         <xdr:cNvPr id="33" name="Oval 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33797,7 +33827,7 @@
         <xdr:cNvPr id="34" name="Đường kết nối: Cong 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33861,7 +33891,7 @@
         <xdr:cNvPr id="27" name="Curved Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33922,7 +33952,7 @@
         <xdr:cNvPr id="34" name="Đường kết nối: Cong 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33983,7 +34013,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34058,7 +34088,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34133,7 +34163,7 @@
         <xdr:cNvPr id="4" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34208,7 +34238,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34285,7 +34315,7 @@
         <xdr:cNvPr id="6" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34362,7 +34392,7 @@
         <xdr:cNvPr id="7" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34437,7 +34467,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34525,7 +34555,7 @@
         <xdr:cNvPr id="9" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34613,7 +34643,7 @@
         <xdr:cNvPr id="10" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34690,7 +34720,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34749,7 +34779,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34809,7 +34839,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34871,7 +34901,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34932,7 +34962,7 @@
         <xdr:cNvPr id="15" name="Elbow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34993,7 +35023,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35054,7 +35084,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35115,7 +35145,7 @@
         <xdr:cNvPr id="18" name="Curved Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35176,7 +35206,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35238,7 +35268,7 @@
         <xdr:cNvPr id="20" name="Curved Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35299,7 +35329,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35359,7 +35389,7 @@
         <xdr:cNvPr id="22" name="Curved Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35420,7 +35450,7 @@
         <xdr:cNvPr id="23" name="Oval 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35497,7 +35527,7 @@
         <xdr:cNvPr id="24" name="Oval 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35574,7 +35604,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35635,7 +35665,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35696,7 +35726,7 @@
         <xdr:cNvPr id="28" name="Curved Connector 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35757,7 +35787,7 @@
         <xdr:cNvPr id="29" name="Oval 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35834,7 +35864,7 @@
         <xdr:cNvPr id="30" name="Curved Connector 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35897,7 +35927,7 @@
         <xdr:cNvPr id="31" name="Curved Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35958,7 +35988,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36019,7 +36049,7 @@
         <xdr:cNvPr id="33" name="Oval 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36101,7 +36131,7 @@
         <xdr:cNvPr id="27" name="Curved Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36162,7 +36192,7 @@
         <xdr:cNvPr id="34" name="Đường kết nối: Cong 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36223,7 +36253,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36298,7 +36328,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36373,7 +36403,7 @@
         <xdr:cNvPr id="4" name="Oval 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36448,7 +36478,7 @@
         <xdr:cNvPr id="5" name="Oval 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36525,7 +36555,7 @@
         <xdr:cNvPr id="6" name="Oval 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36602,7 +36632,7 @@
         <xdr:cNvPr id="7" name="Oval 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36677,7 +36707,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36765,7 +36795,7 @@
         <xdr:cNvPr id="9" name="Oval 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36853,7 +36883,7 @@
         <xdr:cNvPr id="10" name="Oval 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36928,7 +36958,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36987,7 +37017,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37047,7 +37077,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37109,7 +37139,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37170,7 +37200,7 @@
         <xdr:cNvPr id="15" name="Elbow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37231,7 +37261,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37292,7 +37322,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37353,7 +37383,7 @@
         <xdr:cNvPr id="18" name="Curved Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37414,7 +37444,7 @@
         <xdr:cNvPr id="19" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37476,7 +37506,7 @@
         <xdr:cNvPr id="20" name="Curved Connector 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37535,7 +37565,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37597,7 +37627,7 @@
         <xdr:cNvPr id="22" name="Curved Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37656,7 +37686,7 @@
         <xdr:cNvPr id="23" name="Oval 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37733,7 +37763,7 @@
         <xdr:cNvPr id="24" name="Oval 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37810,7 +37840,7 @@
         <xdr:cNvPr id="25" name="Straight Arrow Connector 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37871,7 +37901,7 @@
         <xdr:cNvPr id="26" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37932,7 +37962,7 @@
         <xdr:cNvPr id="28" name="Curved Connector 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -37993,7 +38023,7 @@
         <xdr:cNvPr id="29" name="Oval 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38070,7 +38100,7 @@
         <xdr:cNvPr id="30" name="Curved Connector 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38133,7 +38163,7 @@
         <xdr:cNvPr id="31" name="Curved Connector 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38194,7 +38224,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38255,7 +38285,7 @@
         <xdr:cNvPr id="33" name="Oval 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -38393,23 +38423,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -38445,23 +38458,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -38637,7 +38633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -38647,7 +38643,7 @@
       <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -38655,36 +38651,41 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:B4"/>
+  <dimension ref="B1:B5"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD54" sqref="AD54"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -38695,31 +38696,31 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AF50" sqref="AF50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -38731,36 +38732,41 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF506FF-9449-4E0E-AF1E-8A872180D609}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:B4"/>
+  <dimension ref="B1:B5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD54" sqref="AD54"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -38770,7 +38776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:B3"/>
   <sheetViews>
@@ -38778,14 +38784,14 @@
       <selection activeCell="X48" sqref="X48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -38797,26 +38803,31 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z59" sqref="Z59"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -38826,21 +38837,21 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F228481C-F78F-4FE2-A9E9-E9C44279A376}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -38852,7 +38863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -38860,7 +38871,7 @@
       <selection activeCell="AB37" sqref="AB37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -38868,7 +38879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -38878,7 +38889,7 @@
       <selection activeCell="AA45" sqref="AA45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -38886,54 +38897,97 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T50" sqref="T50"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B2:T50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T50" sqref="T50"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T50" sqref="T50"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -38941,25 +38995,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T50" sqref="T50"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -38969,7 +39034,7 @@
       <selection activeCell="Z45" sqref="Z45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -38977,45 +39042,56 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B2"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z50" sqref="Z50"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B3"/>
+  <dimension ref="B3:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z50" sqref="Z50"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/R-Car_V3U_I2C_State_Machine_Verification.xlsx
+++ b/R-Car_V3U_I2C_State_Machine_Verification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="870" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="870" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="slave_nack_addr" sheetId="45" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>This pattern must assure that the delay time on the slave side is short enough to make the blue path occur.</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>State sequence: 0-1-2-(6-7)-0</t>
+  </si>
+  <si>
+    <t>State sequence: 0-1-2-(4-5-2)-4-5-3-0</t>
+  </si>
+  <si>
+    <t>State sequence: 0-1-2-(6-7-8-7)-0</t>
   </si>
 </sst>
 </file>
@@ -38778,10 +38784,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X48" sqref="X48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38794,6 +38800,11 @@
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -38809,7 +38820,7 @@
   </sheetPr>
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
@@ -38838,10 +38849,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B3"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38854,6 +38868,11 @@
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -38996,13 +39015,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
